--- a/00_files/进度与计划.xlsx
+++ b/00_files/进度与计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torin/Documents/00/01_重要/note/00_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6862FDA-07E6-AC47-AD67-3CA756DD464B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97008B9C-897C-9240-84BD-21AA0273D57C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="200" yWindow="460" windowWidth="28240" windowHeight="16740" activeTab="1" xr2:uid="{D98BEF89-93E4-5146-9D9C-A125164F9631}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="58">
   <si>
     <t>事项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,6 +253,10 @@
   </si>
   <si>
     <t>u型枕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flink</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,8 +449,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BEBBB680-7E92-D841-B01C-91E1007A15E3}" name="表1" displayName="表1" ref="B4:G9" totalsRowShown="0">
-  <autoFilter ref="B4:G9" xr:uid="{9E25DBC6-4905-D644-A4C5-05A190B97D6E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BEBBB680-7E92-D841-B01C-91E1007A15E3}" name="表1" displayName="表1" ref="B4:G10" totalsRowShown="0">
+  <autoFilter ref="B4:G10" xr:uid="{9E25DBC6-4905-D644-A4C5-05A190B97D6E}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{DC106A8B-2E70-164F-AB21-19AD350DD9E6}" name="计划进度"/>
     <tableColumn id="2" xr3:uid="{C15ADE83-C6C4-874D-963F-A1E577A40090}" name="日期" dataDxfId="4"/>
@@ -2456,7 +2460,7 @@
   <dimension ref="B2:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2600,6 +2604,28 @@
         <v>1</v>
       </c>
     </row>
+    <row r="10" spans="2:7">
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="15">
+        <v>44258.694444444445</v>
+      </c>
+      <c r="D10">
+        <v>141</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11">
+        <f>E10/D10</f>
+        <v>7.0921985815602835E-3</v>
+      </c>
+      <c r="G10" s="17">
+        <f>DATEDIF(C8,C10,"d")</f>
+        <v>1</v>
+      </c>
+    </row>
     <row r="12" spans="2:7">
       <c r="C12" s="12"/>
       <c r="F12" s="11"/>
@@ -2609,7 +2635,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F5:F9">
+  <conditionalFormatting sqref="F5:F10">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2683,7 +2709,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F5:F9</xm:sqref>
+          <xm:sqref>F5:F10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1DC0D85E-1C62-A343-B068-67D1B27B5757}">

--- a/00_files/进度与计划.xlsx
+++ b/00_files/进度与计划.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torin/Documents/00/01_重要/note/00_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torin/Documents/00/01_重要/noteDir/00_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97008B9C-897C-9240-84BD-21AA0273D57C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32258C2-74B8-1146-A3F2-C4AAFFB31939}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="460" windowWidth="28240" windowHeight="16740" activeTab="1" xr2:uid="{D98BEF89-93E4-5146-9D9C-A125164F9631}"/>
+    <workbookView xWindow="200" yWindow="460" windowWidth="28240" windowHeight="16740" activeTab="2" xr2:uid="{D98BEF89-93E4-5146-9D9C-A125164F9631}"/>
   </bookViews>
   <sheets>
     <sheet name="任务计划表" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="60">
   <si>
     <t>事项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,6 +263,13 @@
   </si>
   <si>
     <t>flink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝</t>
+  </si>
+  <si>
+    <t>500g*4洗洁精</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -414,7 +427,10 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
     </dxf>
@@ -449,17 +465,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BEBBB680-7E92-D841-B01C-91E1007A15E3}" name="表1" displayName="表1" ref="B4:G10" totalsRowShown="0">
-  <autoFilter ref="B4:G10" xr:uid="{9E25DBC6-4905-D644-A4C5-05A190B97D6E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BEBBB680-7E92-D841-B01C-91E1007A15E3}" name="表1" displayName="表1" ref="B4:G11" totalsRowShown="0">
+  <autoFilter ref="B4:G11" xr:uid="{9E25DBC6-4905-D644-A4C5-05A190B97D6E}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{DC106A8B-2E70-164F-AB21-19AD350DD9E6}" name="计划进度"/>
-    <tableColumn id="2" xr3:uid="{C15ADE83-C6C4-874D-963F-A1E577A40090}" name="日期" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{C15ADE83-C6C4-874D-963F-A1E577A40090}" name="日期" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{116949EA-DB59-A14C-B9F8-2D40E071D3DD}" name="总量"/>
     <tableColumn id="4" xr3:uid="{363AABFA-A649-7D4F-BA5F-D0E6E28D056B}" name="当前"/>
-    <tableColumn id="5" xr3:uid="{787238DD-71E2-0443-A5CE-9777311E9877}" name="进度" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{787238DD-71E2-0443-A5CE-9777311E9877}" name="进度" dataDxfId="4">
       <calculatedColumnFormula>E5/D5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{6FDDFB85-5E81-DD4A-A310-092D3512078A}" name="列1" dataDxfId="2">
+    <tableColumn id="6" xr3:uid="{6FDDFB85-5E81-DD4A-A310-092D3512078A}" name="列1" dataDxfId="3">
       <calculatedColumnFormula>DATEDIF(C3,C5,"d")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -468,13 +484,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2C7FDD38-A356-8646-B60C-60A00A75FFE7}" name="表3" displayName="表3" ref="B2:F25" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="B2:F25" xr:uid="{29A85DE2-5B7C-3F4E-BA1D-3F4CA08975D1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2C7FDD38-A356-8646-B60C-60A00A75FFE7}" name="表3" displayName="表3" ref="B2:F27" totalsRowCount="1" headerRowDxfId="2">
+  <autoFilter ref="B2:F26" xr:uid="{29A85DE2-5B7C-3F4E-BA1D-3F4CA08975D1}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8D78F05A-392E-2343-9E4C-1EDF07C30FD9}" name="日期" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{8D78F05A-392E-2343-9E4C-1EDF07C30FD9}" name="日期" dataDxfId="1" totalsRowDxfId="0"/>
     <tableColumn id="2" xr3:uid="{EB3CC5F2-FA85-B54B-86E6-5D51654E6E12}" name="平台"/>
     <tableColumn id="3" xr3:uid="{D7960125-6CB8-8B40-9790-C7BFBA960218}" name="事项"/>
-    <tableColumn id="4" xr3:uid="{FDB26B89-B714-D642-8F7D-9DFB81CF2CEC}" name="价格"/>
+    <tableColumn id="4" xr3:uid="{FDB26B89-B714-D642-8F7D-9DFB81CF2CEC}" name="价格" totalsRowFunction="sum"/>
     <tableColumn id="5" xr3:uid="{640675F4-C85B-074D-8B44-F0C32F8C4C6B}" name="类型"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -781,7 +797,7 @@
   <dimension ref="B1:AK43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -949,7 +965,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="3"/>
+      <c r="G4" s="7"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -1072,7 +1088,7 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="4"/>
+      <c r="G7" s="7"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -1347,7 +1363,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="G14" s="7"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -1682,7 +1698,7 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="4"/>
+      <c r="G23" s="7"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -1805,7 +1821,7 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="4"/>
+      <c r="G26" s="7"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -2459,8 +2475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5277244-3941-2A46-8EB5-AEBC8330C945}">
   <dimension ref="B2:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2516,7 +2532,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="11">
-        <f>E5/D5</f>
+        <f t="shared" ref="F5:F10" si="0">E5/D5</f>
         <v>4.7619047619047616E-2</v>
       </c>
     </row>
@@ -2534,7 +2550,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="11">
-        <f>E6/D6</f>
+        <f t="shared" si="0"/>
         <v>0.13333333333333333</v>
       </c>
     </row>
@@ -2552,11 +2568,11 @@
         <v>31</v>
       </c>
       <c r="F7" s="11">
-        <f>E7/D7</f>
+        <f t="shared" si="0"/>
         <v>0.14761904761904762</v>
       </c>
       <c r="G7" s="16">
-        <f t="shared" ref="G7" si="0">DATEDIF(C5,C7,"d")</f>
+        <f t="shared" ref="G7" si="1">DATEDIF(C5,C7,"d")</f>
         <v>1</v>
       </c>
     </row>
@@ -2574,7 +2590,7 @@
         <v>41</v>
       </c>
       <c r="F8" s="11">
-        <f>E8/D8</f>
+        <f t="shared" si="0"/>
         <v>0.19523809523809524</v>
       </c>
       <c r="G8" s="17">
@@ -2596,7 +2612,7 @@
         <v>57</v>
       </c>
       <c r="F9" s="11">
-        <f>E9/D9</f>
+        <f t="shared" si="0"/>
         <v>0.27142857142857141</v>
       </c>
       <c r="G9" s="17">
@@ -2618,7 +2634,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="11">
-        <f>E10/D10</f>
+        <f t="shared" si="0"/>
         <v>7.0921985815602835E-3</v>
       </c>
       <c r="G10" s="17">
@@ -2626,6 +2642,28 @@
         <v>1</v>
       </c>
     </row>
+    <row r="11" spans="2:7">
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="15">
+        <v>44258.970138888886</v>
+      </c>
+      <c r="D11">
+        <v>210</v>
+      </c>
+      <c r="E11">
+        <v>75</v>
+      </c>
+      <c r="F11" s="11">
+        <f>E11/D11</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="G11" s="17">
+        <f>DATEDIF(C9,C11,"d")</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="12" spans="2:7">
       <c r="C12" s="12"/>
       <c r="F12" s="11"/>
@@ -2635,7 +2673,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F5:F10">
+  <conditionalFormatting sqref="F5:F11">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2709,7 +2747,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F5:F10</xm:sqref>
+          <xm:sqref>F5:F11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1DC0D85E-1C62-A343-B068-67D1B27B5757}">
@@ -2761,10 +2799,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84A7F57-8E92-154C-9E2C-77198F78BB60}">
-  <dimension ref="B2:H25"/>
+  <dimension ref="B2:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3120,7 +3158,39 @@
       </c>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="13"/>
+      <c r="B25" s="13">
+        <v>44258.973611111112</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="13">
+        <v>44258.973611111112</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="13"/>
+      <c r="E27">
+        <f>SUBTOTAL(109,表3[价格])</f>
+        <v>861.20999999999981</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:E16">
@@ -3128,8 +3198,8 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C25" xr:uid="{88100AE9-9EAF-BD4E-8082-CA0AFD26AC46}">
-      <formula1>$H$3:$H$4</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C26" xr:uid="{88100AE9-9EAF-BD4E-8082-CA0AFD26AC46}">
+      <formula1>"支付宝,微信"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00_files/进度与计划.xlsx
+++ b/00_files/进度与计划.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torin/Documents/00/01_重要/noteDir/00_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torin/Documents/00/01_重要/note/00_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32258C2-74B8-1146-A3F2-C4AAFFB31939}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1764A9-2A27-5B40-8BF5-90D858A10297}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="200" yWindow="460" windowWidth="28240" windowHeight="16740" activeTab="2" xr2:uid="{D98BEF89-93E4-5146-9D9C-A125164F9631}"/>
   </bookViews>
@@ -22,18 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="65">
   <si>
     <t>事项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -271,6 +265,25 @@
   <si>
     <t>500g*4洗洁精</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外卖给笨笨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共享单车7天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核酸检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午外卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信</t>
   </si>
 </sst>
 </file>
@@ -465,8 +478,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BEBBB680-7E92-D841-B01C-91E1007A15E3}" name="表1" displayName="表1" ref="B4:G11" totalsRowShown="0">
-  <autoFilter ref="B4:G11" xr:uid="{9E25DBC6-4905-D644-A4C5-05A190B97D6E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BEBBB680-7E92-D841-B01C-91E1007A15E3}" name="表1" displayName="表1" ref="B4:G12" totalsRowShown="0">
+  <autoFilter ref="B4:G12" xr:uid="{9E25DBC6-4905-D644-A4C5-05A190B97D6E}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{DC106A8B-2E70-164F-AB21-19AD350DD9E6}" name="计划进度"/>
     <tableColumn id="2" xr3:uid="{C15ADE83-C6C4-874D-963F-A1E577A40090}" name="日期" dataDxfId="5"/>
@@ -484,8 +497,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2C7FDD38-A356-8646-B60C-60A00A75FFE7}" name="表3" displayName="表3" ref="B2:F27" totalsRowCount="1" headerRowDxfId="2">
-  <autoFilter ref="B2:F26" xr:uid="{29A85DE2-5B7C-3F4E-BA1D-3F4CA08975D1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2C7FDD38-A356-8646-B60C-60A00A75FFE7}" name="表3" displayName="表3" ref="B2:F33" totalsRowCount="1" headerRowDxfId="2">
+  <autoFilter ref="B2:F32" xr:uid="{29A85DE2-5B7C-3F4E-BA1D-3F4CA08975D1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8D78F05A-392E-2343-9E4C-1EDF07C30FD9}" name="日期" dataDxfId="1" totalsRowDxfId="0"/>
     <tableColumn id="2" xr3:uid="{EB3CC5F2-FA85-B54B-86E6-5D51654E6E12}" name="平台"/>
@@ -797,7 +810,7 @@
   <dimension ref="B1:AK43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -808,7 +821,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:37">
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>29</v>
       </c>
     </row>
@@ -966,7 +979,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="3"/>
+      <c r="H4" s="7"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1007,7 +1020,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="H5" s="7"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -1089,7 +1102,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="4"/>
+      <c r="H7" s="7"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -1130,7 +1143,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="H8" s="7"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -1171,7 +1184,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="H9" s="7"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -1326,7 +1339,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="H13" s="7"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -1402,7 +1415,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="4"/>
+      <c r="H15" s="7"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -1440,7 +1453,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="7"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="H16" s="7"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -1699,7 +1712,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="4"/>
+      <c r="H23" s="7"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -1822,7 +1835,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="4"/>
+      <c r="H26" s="7"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -2476,7 +2489,7 @@
   <dimension ref="B2:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2665,16 +2678,34 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="C12" s="12"/>
-      <c r="F12" s="11"/>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="15">
+        <v>44259.880555555559</v>
+      </c>
+      <c r="D12">
+        <v>141</v>
+      </c>
+      <c r="E12">
+        <v>28</v>
+      </c>
+      <c r="F12" s="11">
+        <f t="shared" ref="F12" si="2">E12/D12</f>
+        <v>0.19858156028368795</v>
+      </c>
+      <c r="G12" s="17">
+        <f>DATEDIF(C10,C12,"d")</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="2:7">
       <c r="C14" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F5:F11">
-    <cfRule type="dataBar" priority="5">
+  <conditionalFormatting sqref="F5:F12">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -2688,7 +2719,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -2703,18 +2734,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
     <cfRule type="dataBar" priority="1">
-      <dataBar showValue="0">
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0DB913E3-8D8A-C844-B1A4-90765566E837}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -2722,7 +2741,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{976510A2-B371-8E43-B7BD-BBC04900A5DA}</x14:id>
+          <x14:id>{FD16E220-6F5E-5E42-AB11-3B32BDF20051}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2747,7 +2766,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F5:F11</xm:sqref>
+          <xm:sqref>F5:F12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1DC0D85E-1C62-A343-B068-67D1B27B5757}">
@@ -2765,19 +2784,7 @@
           <xm:sqref>F4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0DB913E3-8D8A-C844-B1A4-90765566E837}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="middle">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor theme="5"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{976510A2-B371-8E43-B7BD-BBC04900A5DA}">
+          <x14:cfRule type="dataBar" id="{FD16E220-6F5E-5E42-AB11-3B32BDF20051}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -2799,10 +2806,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84A7F57-8E92-154C-9E2C-77198F78BB60}">
-  <dimension ref="B2:H27"/>
+  <dimension ref="B2:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3186,10 +3193,83 @@
       </c>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="13"/>
+      <c r="B27" s="13">
+        <v>44259.883333333331</v>
+      </c>
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" t="s">
+        <v>60</v>
+      </c>
       <c r="E27">
+        <v>27.39</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="13">
+        <v>44259.883333333331</v>
+      </c>
+      <c r="C28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="13">
+        <v>44259.883333333331</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="13">
+        <v>44259.883333333331</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="13">
+        <v>44259.883333333331</v>
+      </c>
+      <c r="C31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="13"/>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="13"/>
+      <c r="E33">
         <f>SUBTOTAL(109,表3[价格])</f>
-        <v>861.20999999999981</v>
+        <v>994.0999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -3198,7 +3278,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C26" xr:uid="{88100AE9-9EAF-BD4E-8082-CA0AFD26AC46}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C33" xr:uid="{88100AE9-9EAF-BD4E-8082-CA0AFD26AC46}">
       <formula1>"支付宝,微信"</formula1>
     </dataValidation>
   </dataValidations>
